--- a/docs/Employee_Record_Template.xlsx
+++ b/docs/Employee_Record_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olalekan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olalekan\Desktop\jfiles\payroll\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA50EA35-BD98-41CD-AFBD-57D28ECE65C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED086EE8-BBD7-454F-8BFC-B22CBFA0A106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{46D5286B-7FCC-4DF1-83F0-20D39316EDCA}"/>
   </bookViews>
@@ -31,31 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Daniel James</t>
-  </si>
-  <si>
-    <t>daniejay@gmail.com</t>
-  </si>
-  <si>
-    <t>Right Wing Midfielder</t>
-  </si>
-  <si>
-    <t>Forward</t>
-  </si>
-  <si>
-    <t>Manchester</t>
-  </si>
-  <si>
-    <t>Barclays</t>
-  </si>
-  <si>
-    <t>Not Available</t>
-  </si>
-  <si>
-    <t>Level 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -458,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA0EF98-512A-4FE7-9A2D-5954A090D613}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,73 +454,41 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>9404294049094</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>8202028402840</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{ED804B51-284A-42DE-B78D-9DD0CCD4DB8D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>